--- a/data/raw/groupdata_JapanEastCoast.xlsx
+++ b/data/raw/groupdata_JapanEastCoast.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataLAB\MBA SeafoodWatch\Data\Japan East Coast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelzuercher/Desktop/MBA/SFW/forage_fish/SFW_foragefish/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3924C759-98E8-4F31-8106-12FEFF88EE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF6021-4548-FD41-BD5B-09CC9B05F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{A7D973A1-953A-43C7-9147-D4783F6A2579}"/>
+    <workbookView xWindow="17300" yWindow="500" windowWidth="11500" windowHeight="16300" xr2:uid="{A7D973A1-953A-43C7-9147-D4783F6A2579}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A-Model Parameters" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,6 @@
     <t>group.name</t>
   </si>
   <si>
-    <t>group.name2</t>
-  </si>
-  <si>
     <t>QB</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>Detritus</t>
+  </si>
+  <si>
+    <t>group.code</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -434,6 +433,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -562,12 +562,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{402138BE-FEC1-41C7-9CBC-E9B92E6F2894}" name="ModelPara" displayName="ModelPara" ref="A1:F42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F42" xr:uid="{A16C6980-CD00-4BF1-BA74-3864D5A912BC}"/>
   <tableColumns count="6">
-    <tableColumn id="11" xr3:uid="{07712CE6-BEE4-4FAE-97F4-904DA7FCFB23}" name="group.name" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{748A6107-99E4-4EA7-8440-F4FE1A1BC069}" name="group.name2" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{07712CE6-BEE4-4FAE-97F4-904DA7FCFB23}" name="group.code" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{748A6107-99E4-4EA7-8440-F4FE1A1BC069}" name="group.name" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{248B6601-61C3-4286-98FE-39516A47D1A6}" name="B" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{C5F7B6B2-83F1-45D0-9FD3-1B00EEBBAE74}" name="QB" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{0D69546B-3261-4EBE-81B6-285A7DD904B3}" name="ED" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D9DC90FE-8132-4954-A93F-87079C1EAF62}" name="agg.group.name" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{0D69546B-3261-4EBE-81B6-285A7DD904B3}" name="ED" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D9DC90FE-8132-4954-A93F-87079C1EAF62}" name="agg.group.name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -893,40 +893,40 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.75" style="1"/>
-    <col min="5" max="5" width="8.75" style="2"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -943,10 +943,10 @@
         <v>8.74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -963,10 +963,10 @@
         <v>8.74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -983,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1003,10 +1003,10 @@
         <v>7.35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1023,10 +1023,10 @@
         <v>6.03</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1043,10 +1043,10 @@
         <v>6.03</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1063,10 +1063,10 @@
         <v>3.55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1083,10 +1083,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1103,10 +1103,10 @@
         <v>10.5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1123,10 +1123,10 @@
         <v>6.3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1143,10 +1143,10 @@
         <v>7.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1163,10 +1163,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1183,10 +1183,10 @@
         <v>7.9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1203,10 +1203,10 @@
         <v>6.9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1223,10 +1223,10 @@
         <v>5.93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1243,10 +1243,10 @@
         <v>5.7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1263,10 +1263,10 @@
         <v>3.4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1283,10 +1283,10 @@
         <v>3.6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1303,10 +1303,10 @@
         <v>4.5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1323,10 +1323,10 @@
         <v>5.7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1343,10 +1343,10 @@
         <v>8.1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1363,10 +1363,10 @@
         <v>3.55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1383,10 +1383,10 @@
         <v>4.5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1403,10 +1403,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1423,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1443,10 +1443,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1463,10 +1463,10 @@
         <v>4.13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1483,10 +1483,10 @@
         <v>4.13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1503,10 +1503,10 @@
         <v>1.6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1523,10 +1523,10 @@
         <v>1.6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1543,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1563,10 +1563,10 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1583,10 +1583,10 @@
         <v>1.8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1603,10 +1603,10 @@
         <v>1.8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1623,10 +1623,10 @@
         <v>1.8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1643,10 +1643,10 @@
         <v>1.01</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1663,10 +1663,10 @@
         <v>1.01</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1683,10 +1683,10 @@
         <v>1.01</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1703,10 +1703,10 @@
         <v>4.88</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1723,10 +1723,10 @@
         <v>4.88</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>4.88</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
